--- a/Semana 7-8/Red_Neuronal_Ejemplo_HM_PESO_TALLA.xlsx
+++ b/Semana 7-8/Red_Neuronal_Ejemplo_HM_PESO_TALLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubsAcademic\ia2022-1b\Semana 7-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399792F6-EB03-4E3E-95E8-7780C75A4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E359AA-B2BB-4AC1-9324-152F1236384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E45899E-B944-44A4-A3D2-83D0E3103C75}"/>
   </bookViews>
